--- a/Documentation/InitialReview_1.xlsx
+++ b/Documentation/InitialReview_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>PHASE 1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">Different Image files can be used to show different icons. But high number of vechicles can be an issue. </t>
-  </si>
-  <si>
-    <t>3``</t>
   </si>
   <si>
     <t xml:space="preserve">Please add labels so that we can related the time slots for a PRV with provided excel
@@ -537,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -563,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -582,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -596,29 +593,29 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="75">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45">
@@ -626,13 +623,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -642,12 +639,12 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="75">
@@ -655,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
@@ -669,13 +666,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">

--- a/Documentation/InitialReview_1.xlsx
+++ b/Documentation/InitialReview_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>PHASE 1</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>This is our default view. We need to add filter to the view.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,12 +553,12 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -565,13 +571,16 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -584,8 +593,11 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="45">
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -599,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75">
+    <row r="6" spans="1:5" ht="75">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -612,13 +624,16 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -631,23 +646,26 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5">
+    <row r="11" spans="1:5" ht="28.5">
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75">
+    <row r="12" spans="1:5" ht="75">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -661,7 +679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -675,10 +693,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="B16" s="3"/>
     </row>
   </sheetData>

--- a/Documentation/InitialReview_1.xlsx
+++ b/Documentation/InitialReview_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>PHASE 1</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t>Extra Tasks</t>
+  </si>
+  <si>
+    <t>Connecting Q-learning algorithm output to database</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>To directly update the routes to the database</t>
+  </si>
+  <si>
+    <t>Deploying the project to the IITK server</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -215,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +266,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,6 +640,9 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="75">
       <c r="A6" s="3">
@@ -651,9 +684,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
@@ -667,7 +698,7 @@
     </row>
     <row r="12" spans="1:5" ht="75">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -678,10 +709,13 @@
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30">
       <c r="A13" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
@@ -692,12 +726,48 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="3"/>
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
